--- a/xlsx/country_comparison/solidarity_support_incl_info_share.xlsx
+++ b/xlsx/country_comparison/solidarity_support_incl_info_share.xlsx
@@ -12,11 +12,17 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
   <si>
     <t xml:space="preserve"/>
   </si>
   <si>
+    <t xml:space="preserve">$ bold('All')</t>
+  </si>
+  <si>
+    <t xml:space="preserve">$ bold('Europe')</t>
+  </si>
+  <si>
     <t xml:space="preserve">France</t>
   </si>
   <si>
@@ -26,25 +32,25 @@
     <t xml:space="preserve">Italy</t>
   </si>
   <si>
+    <t xml:space="preserve">Poland</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Spain</t>
+  </si>
+  <si>
+    <t xml:space="preserve">United Kingdom</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Switzerland</t>
+  </si>
+  <si>
     <t xml:space="preserve">Japan</t>
   </si>
   <si>
-    <t xml:space="preserve">Poland</t>
-  </si>
-  <si>
     <t xml:space="preserve">Saudi Arabia</t>
   </si>
   <si>
-    <t xml:space="preserve">Spain</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Switzerland</t>
-  </si>
-  <si>
-    <t xml:space="preserve">United Kingdom</t>
-  </si>
-  <si>
-    <t xml:space="preserve">United States</t>
+    <t xml:space="preserve">USA</t>
   </si>
   <si>
     <t xml:space="preserve">Minimum tax of 2% on billionaires'
@@ -55,35 +61,35 @@
 investments in LICs, and at lower interest rates</t>
   </si>
   <si>
-    <t xml:space="preserve">International levy on carbon emissions from
-shipping, returned to countries based on population</t>
+    <t xml:space="preserve">L&amp;D: Developed countries financing a fund to help
+vulnerable countries cope with climate Loss and damage</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Expand Security Council to new permanent members (e.g.
+India, Brazil, African Union), restrict veto use</t>
+  </si>
+  <si>
+    <t xml:space="preserve">International levy on shipping carbon emissions,
+returned to countries based on population</t>
   </si>
   <si>
     <t xml:space="preserve">Raise global minimum tax on profit from 15% to 35%,
 allocating revenues to countries based on sales</t>
   </si>
   <si>
-    <t xml:space="preserve">L&amp;D: Developed countries financing a fund to help
-vulnerable countries cope with cliamte Loss and damage</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Expand Security Council to new permanent members
-(e.g. India, Brazil, AU), restrict veto use</t>
+    <t xml:space="preserve">At least 0.7% of developed countries' GDP in foreign aid</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Debt relief for vulnerable countries, suspending
+payments until they are more able to repay</t>
   </si>
   <si>
     <t xml:space="preserve">NCQG: Developing countries providing $300 bn a
 year in climate finance for developing countries</t>
   </si>
   <si>
-    <t xml:space="preserve">At least 0.7% of developed countries' GDP in foreign aid</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Debt relief for vulnerable countries, suspending
-payments until they are more able to repay</t>
-  </si>
-  <si>
-    <t xml:space="preserve">International levy on carbon emissions from
-aviation, returned to countries based on population</t>
+    <t xml:space="preserve">International levy on aviation carbon emissions, raising
+prices by 30%, returned to countries based on population</t>
   </si>
 </sst>
 </file>
@@ -449,355 +455,421 @@
       <c r="K1" t="s">
         <v>10</v>
       </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B2" t="n">
-        <v>0.864958102092999</v>
+        <v>0.811958179504492</v>
       </c>
       <c r="C2" t="n">
-        <v>0.823613934101162</v>
+        <v>0.842017655185441</v>
       </c>
       <c r="D2" t="n">
-        <v>0.89147338213997</v>
+        <v>0.86515613601839</v>
       </c>
       <c r="E2" t="n">
-        <v>0.810725590888874</v>
+        <v>0.826684090693282</v>
       </c>
       <c r="F2" t="n">
-        <v>0.796743332303996</v>
+        <v>0.890400374805971</v>
       </c>
       <c r="G2" t="n">
-        <v>0.847156851434033</v>
+        <v>0.796098875719258</v>
       </c>
       <c r="H2" t="n">
-        <v>0.824321039120335</v>
+        <v>0.813804761370119</v>
       </c>
       <c r="I2" t="n">
-        <v>0.775468074340031</v>
+        <v>0.851917772582188</v>
       </c>
       <c r="J2" t="n">
-        <v>0.85182117772691</v>
+        <v>0.749584223477851</v>
       </c>
       <c r="K2" t="n">
-        <v>0.758581896337762</v>
+        <v>0.80443225052632</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0.84198527428922</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0.775144457945043</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B3" t="n">
-        <v>0.816423299871636</v>
+        <v>0.795915592405758</v>
       </c>
       <c r="C3" t="n">
-        <v>0.832628118228285</v>
+        <v>0.829110867227459</v>
       </c>
       <c r="D3" t="n">
-        <v>0.919269524143786</v>
+        <v>0.79700470179492</v>
       </c>
       <c r="E3" t="n">
-        <v>0.797212983324002</v>
+        <v>0.837297608751938</v>
       </c>
       <c r="F3" t="n">
-        <v>0.769323431633353</v>
+        <v>0.899950129723695</v>
       </c>
       <c r="G3" t="n">
-        <v>0.852857848040498</v>
+        <v>0.74115619286813</v>
       </c>
       <c r="H3" t="n">
-        <v>0.851336152179471</v>
+        <v>0.836521624687699</v>
       </c>
       <c r="I3" t="n">
-        <v>0.740064507400955</v>
+        <v>0.826893263931655</v>
       </c>
       <c r="J3" t="n">
-        <v>0.81166212275599</v>
+        <v>0.75705857937636</v>
       </c>
       <c r="K3" t="n">
-        <v>0.739946423732297</v>
+        <v>0.799099230996859</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0.840886395970294</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0.751755129790232</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B4" t="n">
-        <v>0.791190686156599</v>
+        <v>0.743953849640901</v>
       </c>
       <c r="C4" t="n">
-        <v>0.68602863001368</v>
+        <v>0.763300258946126</v>
       </c>
       <c r="D4" t="n">
-        <v>0.799462050210119</v>
+        <v>0.718679271184447</v>
       </c>
       <c r="E4" t="n">
-        <v>0.602307287724347</v>
+        <v>0.749912520069099</v>
       </c>
       <c r="F4" t="n">
-        <v>0.624976654207183</v>
+        <v>0.859952435766408</v>
       </c>
       <c r="G4" t="n">
-        <v>0.808736974564913</v>
+        <v>0.716738181801112</v>
       </c>
       <c r="H4" t="n">
-        <v>0.756918716396454</v>
+        <v>0.792997401140197</v>
       </c>
       <c r="I4" t="n">
-        <v>0.704868983479929</v>
+        <v>0.742113769980062</v>
       </c>
       <c r="J4" t="n">
-        <v>0.780474886722896</v>
+        <v>0.706380462592848</v>
       </c>
       <c r="K4" t="n">
-        <v>0.662933536157657</v>
+        <v>0.738637188957687</v>
+      </c>
+      <c r="L4" t="n">
+        <v>0.874638719388442</v>
+      </c>
+      <c r="M4" t="n">
+        <v>0.709627276853736</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B5" t="n">
-        <v>0.730730388220494</v>
+        <v>0.725245030220228</v>
       </c>
       <c r="C5" t="n">
-        <v>0.746108721344696</v>
+        <v>0.760707963995337</v>
       </c>
       <c r="D5" t="n">
-        <v>0.813942031117974</v>
+        <v>0.699736614924214</v>
       </c>
       <c r="E5" t="n">
-        <v>0.727333435512803</v>
+        <v>0.768360035398403</v>
       </c>
       <c r="F5" t="n">
-        <v>0.645485721144093</v>
+        <v>0.834848396666732</v>
       </c>
       <c r="G5" t="n">
-        <v>0.721119320295726</v>
+        <v>0.721374652723915</v>
       </c>
       <c r="H5" t="n">
-        <v>0.714790321391256</v>
+        <v>0.781780428310875</v>
       </c>
       <c r="I5" t="n">
-        <v>0.518776728952486</v>
+        <v>0.754321933619075</v>
       </c>
       <c r="J5" t="n">
-        <v>0.722505404201985</v>
+        <v>0.69310502824291</v>
       </c>
       <c r="K5" t="n">
-        <v>0.633071855864216</v>
+        <v>0.679140589366531</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0.8376264999751</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0.683141104107147</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B6" t="n">
-        <v>0.72797938261947</v>
+        <v>0.708848295991931</v>
       </c>
       <c r="C6" t="n">
-        <v>0.761198716102254</v>
+        <v>0.742910759858296</v>
       </c>
       <c r="D6" t="n">
-        <v>0.830964582767843</v>
+        <v>0.785178024693478</v>
       </c>
       <c r="E6" t="n">
-        <v>0.735876970126772</v>
+        <v>0.696354101026213</v>
       </c>
       <c r="F6" t="n">
-        <v>0.733592132861737</v>
+        <v>0.816232706139508</v>
       </c>
       <c r="G6" t="n">
-        <v>0.880147489396076</v>
+        <v>0.611028038342469</v>
       </c>
       <c r="H6" t="n">
-        <v>0.800065010284481</v>
+        <v>0.749888857182115</v>
       </c>
       <c r="I6" t="n">
-        <v>0.716692542013065</v>
+        <v>0.759698569242281</v>
       </c>
       <c r="J6" t="n">
-        <v>0.752220183883212</v>
+        <v>0.691834500135429</v>
       </c>
       <c r="K6" t="n">
-        <v>0.68744306044711</v>
+        <v>0.605605183565789</v>
+      </c>
+      <c r="L6" t="n">
+        <v>0.807677934079569</v>
+      </c>
+      <c r="M6" t="n">
+        <v>0.687805769455742</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B7" t="n">
-        <v>0.708006825911604</v>
+        <v>0.695578147276413</v>
       </c>
       <c r="C7" t="n">
-        <v>0.765235445120123</v>
+        <v>0.730089791866849</v>
       </c>
       <c r="D7" t="n">
-        <v>0.840874529847405</v>
+        <v>0.721806979075224</v>
       </c>
       <c r="E7" t="n">
-        <v>0.683594683461161</v>
+        <v>0.738928777266841</v>
       </c>
       <c r="F7" t="n">
-        <v>0.719147123926237</v>
+        <v>0.818368431537213</v>
       </c>
       <c r="G7" t="n">
-        <v>0.836795019176178</v>
+        <v>0.655073035708112</v>
       </c>
       <c r="H7" t="n">
-        <v>0.803570702089893</v>
+        <v>0.699855361189891</v>
       </c>
       <c r="I7" t="n">
-        <v>0.736828758546429</v>
+        <v>0.724967503501726</v>
       </c>
       <c r="J7" t="n">
-        <v>0.75573473174733</v>
+        <v>0.558559408143098</v>
       </c>
       <c r="K7" t="n">
-        <v>0.656728838636956</v>
+        <v>0.730475362498803</v>
+      </c>
+      <c r="L7" t="n">
+        <v>0.716289840668841</v>
+      </c>
+      <c r="M7" t="n">
+        <v>0.639936030958015</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B8" t="n">
-        <v>0.682419827993952</v>
+        <v>0.695065052214898</v>
       </c>
       <c r="C8" t="n">
-        <v>0.70791405707903</v>
+        <v>0.704195954571904</v>
       </c>
       <c r="D8" t="n">
-        <v>0.781283803950255</v>
+        <v>0.666277076821746</v>
       </c>
       <c r="E8" t="n">
-        <v>0.593349777163246</v>
+        <v>0.696802587374168</v>
       </c>
       <c r="F8" t="n">
-        <v>0.647054349833966</v>
+        <v>0.795410788198406</v>
       </c>
       <c r="G8" t="n">
-        <v>0.841092404403231</v>
+        <v>0.607698690886031</v>
       </c>
       <c r="H8" t="n">
-        <v>0.773838698485049</v>
+        <v>0.792062683939815</v>
       </c>
       <c r="I8" t="n">
-        <v>0.633364846896543</v>
+        <v>0.667190951833058</v>
       </c>
       <c r="J8" t="n">
-        <v>0.667809495730429</v>
+        <v>0.613045932555469</v>
       </c>
       <c r="K8" t="n">
-        <v>0.63062860456716</v>
+        <v>0.628936238865224</v>
+      </c>
+      <c r="L8" t="n">
+        <v>0.855256695357428</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0.687897470422195</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B9" t="n">
-        <v>0.669091048325528</v>
+        <v>0.693877020238408</v>
       </c>
       <c r="C9" t="n">
-        <v>0.687375092803926</v>
+        <v>0.697092895122861</v>
       </c>
       <c r="D9" t="n">
-        <v>0.773559211016551</v>
+        <v>0.609435949401638</v>
       </c>
       <c r="E9" t="n">
-        <v>0.629384898021521</v>
+        <v>0.617730568207905</v>
       </c>
       <c r="F9" t="n">
-        <v>0.638787989329969</v>
+        <v>0.817279205035671</v>
       </c>
       <c r="G9" t="n">
-        <v>0.856208512804366</v>
+        <v>0.784613555684529</v>
       </c>
       <c r="H9" t="n">
-        <v>0.808612014333642</v>
+        <v>0.730223465689437</v>
       </c>
       <c r="I9" t="n">
-        <v>0.61245054847285</v>
+        <v>0.709609963249317</v>
       </c>
       <c r="J9" t="n">
-        <v>0.647881710943908</v>
+        <v>0.615967974842448</v>
       </c>
       <c r="K9" t="n">
-        <v>0.66814526347868</v>
+        <v>0.682031121486497</v>
+      </c>
+      <c r="L9" t="n">
+        <v>0.863761845049657</v>
+      </c>
+      <c r="M9" t="n">
+        <v>0.676132106736418</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B10" t="n">
-        <v>0.621187246073827</v>
+        <v>0.670183214069486</v>
       </c>
       <c r="C10" t="n">
-        <v>0.606440961763276</v>
+        <v>0.700444935809081</v>
       </c>
       <c r="D10" t="n">
-        <v>0.810221115526261</v>
+        <v>0.663129510132515</v>
       </c>
       <c r="E10" t="n">
-        <v>0.688713364942991</v>
+        <v>0.703082442009088</v>
       </c>
       <c r="F10" t="n">
-        <v>0.789149603009194</v>
+        <v>0.767953584569949</v>
       </c>
       <c r="G10" t="n">
-        <v>0.867996707107233</v>
+        <v>0.635274058195458</v>
       </c>
       <c r="H10" t="n">
-        <v>0.729839721195468</v>
+        <v>0.761652911826404</v>
       </c>
       <c r="I10" t="n">
-        <v>0.603628036177395</v>
+        <v>0.669175014521477</v>
       </c>
       <c r="J10" t="n">
-        <v>0.699062951363818</v>
+        <v>0.628848736852518</v>
       </c>
       <c r="K10" t="n">
-        <v>0.631816082018358</v>
+        <v>0.598238277778606</v>
+      </c>
+      <c r="L10" t="n">
+        <v>0.847174994036053</v>
+      </c>
+      <c r="M10" t="n">
+        <v>0.637702610469337</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B11" t="n">
-        <v>0.597201037855785</v>
+        <v>0.529065013196471</v>
       </c>
       <c r="C11" t="n">
-        <v>0.535480443922023</v>
+        <v>0.548734778775213</v>
       </c>
       <c r="D11" t="n">
-        <v>0.531925659295507</v>
+        <v>0.586853027154667</v>
       </c>
       <c r="E11" t="n">
-        <v>0.4770221889618</v>
+        <v>0.566216773671888</v>
       </c>
       <c r="F11" t="n">
-        <v>0.500798824502632</v>
+        <v>0.555300175601703</v>
       </c>
       <c r="G11" t="n">
-        <v>0.664631445542935</v>
+        <v>0.492722347705675</v>
       </c>
       <c r="H11" t="n">
-        <v>0.543439903497121</v>
+        <v>0.537066799207873</v>
       </c>
       <c r="I11" t="n">
-        <v>0.485418306590343</v>
+        <v>0.531450920754672</v>
       </c>
       <c r="J11" t="n">
-        <v>0.570155687256315</v>
+        <v>0.483061039763313</v>
       </c>
       <c r="K11" t="n">
-        <v>0.51837693018058</v>
+        <v>0.473830554302156</v>
+      </c>
+      <c r="L11" t="n">
+        <v>0.672130794852054</v>
+      </c>
+      <c r="M11" t="n">
+        <v>0.507565725374135</v>
       </c>
     </row>
   </sheetData>

--- a/xlsx/country_comparison/solidarity_support_incl_info_share.xlsx
+++ b/xlsx/country_comparison/solidarity_support_incl_info_share.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
   <si>
     <t xml:space="preserve"/>
   </si>
@@ -45,6 +45,9 @@
   </si>
   <si>
     <t xml:space="preserve">Japan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Russia</t>
   </si>
   <si>
     <t xml:space="preserve">Saudi Arabia</t>
@@ -65,27 +68,27 @@
 vulnerable countries cope with climate Loss and damage</t>
   </si>
   <si>
+    <t xml:space="preserve">International levy on shipping carbon emissions,
+returned to countries based on population</t>
+  </si>
+  <si>
     <t xml:space="preserve">Expand Security Council to new permanent members (e.g.
 India, Brazil, African Union), restrict veto use</t>
   </si>
   <si>
-    <t xml:space="preserve">International levy on shipping carbon emissions,
-returned to countries based on population</t>
+    <t xml:space="preserve">At least 0.7% of developed countries' GDP in foreign aid</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Debt relief for vulnerable countries, suspending
+payments until they are more able to repay</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NCQG: Developing countries providing $300 bn a
+year in climate finance for developing countries</t>
   </si>
   <si>
     <t xml:space="preserve">Raise global minimum tax on profit from 15% to 35%,
 allocating revenues to countries based on sales</t>
-  </si>
-  <si>
-    <t xml:space="preserve">At least 0.7% of developed countries' GDP in foreign aid</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Debt relief for vulnerable countries, suspending
-payments until they are more able to repay</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NCQG: Developing countries providing $300 bn a
-year in climate finance for developing countries</t>
   </si>
   <si>
     <t xml:space="preserve">International levy on aviation carbon emissions, raising
@@ -461,13 +464,16 @@
       <c r="M1" t="s">
         <v>12</v>
       </c>
+      <c r="N1" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B2" t="n">
-        <v>0.811958179504492</v>
+        <v>0.810849876041008</v>
       </c>
       <c r="C2" t="n">
         <v>0.842017655185441</v>
@@ -497,18 +503,21 @@
         <v>0.80443225052632</v>
       </c>
       <c r="L2" t="n">
+        <v>0.803447498047737</v>
+      </c>
+      <c r="M2" t="n">
         <v>0.84198527428922</v>
       </c>
-      <c r="M2" t="n">
+      <c r="N2" t="n">
         <v>0.775144457945043</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B3" t="n">
-        <v>0.795915592405758</v>
+        <v>0.799931570188308</v>
       </c>
       <c r="C3" t="n">
         <v>0.829110867227459</v>
@@ -538,18 +547,21 @@
         <v>0.799099230996859</v>
       </c>
       <c r="L3" t="n">
+        <v>0.829667194243608</v>
+      </c>
+      <c r="M3" t="n">
         <v>0.840886395970294</v>
       </c>
-      <c r="M3" t="n">
+      <c r="N3" t="n">
         <v>0.751755129790232</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B4" t="n">
-        <v>0.743953849640901</v>
+        <v>0.758711414916638</v>
       </c>
       <c r="C4" t="n">
         <v>0.763300258946126</v>
@@ -570,7 +582,7 @@
         <v>0.792997401140197</v>
       </c>
       <c r="I4" t="n">
-        <v>0.742113769980062</v>
+        <v>0.742113769980061</v>
       </c>
       <c r="J4" t="n">
         <v>0.706380462592848</v>
@@ -579,264 +591,285 @@
         <v>0.738637188957687</v>
       </c>
       <c r="L4" t="n">
+        <v>0.860894369991106</v>
+      </c>
+      <c r="M4" t="n">
         <v>0.874638719388442</v>
       </c>
-      <c r="M4" t="n">
-        <v>0.709627276853736</v>
+      <c r="N4" t="n">
+        <v>0.709627276853735</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B5" t="n">
-        <v>0.725245030220228</v>
+        <v>0.712733222468852</v>
       </c>
       <c r="C5" t="n">
-        <v>0.760707963995337</v>
+        <v>0.742910759858296</v>
       </c>
       <c r="D5" t="n">
-        <v>0.699736614924214</v>
+        <v>0.785178024693478</v>
       </c>
       <c r="E5" t="n">
-        <v>0.768360035398403</v>
+        <v>0.696354101026213</v>
       </c>
       <c r="F5" t="n">
-        <v>0.834848396666732</v>
+        <v>0.816232706139508</v>
       </c>
       <c r="G5" t="n">
-        <v>0.721374652723915</v>
+        <v>0.611028038342469</v>
       </c>
       <c r="H5" t="n">
-        <v>0.781780428310875</v>
+        <v>0.749888857182115</v>
       </c>
       <c r="I5" t="n">
-        <v>0.754321933619075</v>
+        <v>0.759698569242281</v>
       </c>
       <c r="J5" t="n">
-        <v>0.69310502824291</v>
+        <v>0.691834500135429</v>
       </c>
       <c r="K5" t="n">
-        <v>0.679140589366531</v>
+        <v>0.605605183565789</v>
       </c>
       <c r="L5" t="n">
-        <v>0.8376264999751</v>
+        <v>0.735989202002193</v>
       </c>
       <c r="M5" t="n">
-        <v>0.683141104107147</v>
+        <v>0.807677934079569</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0.687805769455741</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B6" t="n">
-        <v>0.708848295991931</v>
+        <v>0.712662833023526</v>
       </c>
       <c r="C6" t="n">
-        <v>0.742910759858296</v>
+        <v>0.760707963995337</v>
       </c>
       <c r="D6" t="n">
-        <v>0.785178024693478</v>
+        <v>0.699736614924214</v>
       </c>
       <c r="E6" t="n">
-        <v>0.696354101026213</v>
+        <v>0.768360035398403</v>
       </c>
       <c r="F6" t="n">
-        <v>0.816232706139508</v>
+        <v>0.834848396666732</v>
       </c>
       <c r="G6" t="n">
-        <v>0.611028038342469</v>
+        <v>0.721374652723915</v>
       </c>
       <c r="H6" t="n">
-        <v>0.749888857182115</v>
+        <v>0.781780428310875</v>
       </c>
       <c r="I6" t="n">
-        <v>0.759698569242281</v>
+        <v>0.754321933619075</v>
       </c>
       <c r="J6" t="n">
-        <v>0.691834500135429</v>
+        <v>0.69310502824291</v>
       </c>
       <c r="K6" t="n">
-        <v>0.605605183565789</v>
+        <v>0.679140589366531</v>
       </c>
       <c r="L6" t="n">
-        <v>0.807677934079569</v>
+        <v>0.552103442503757</v>
       </c>
       <c r="M6" t="n">
-        <v>0.687805769455742</v>
+        <v>0.8376264999751</v>
+      </c>
+      <c r="N6" t="n">
+        <v>0.683141104107147</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B7" t="n">
-        <v>0.695578147276413</v>
+        <v>0.710906084923535</v>
       </c>
       <c r="C7" t="n">
-        <v>0.730089791866849</v>
+        <v>0.704195954571904</v>
       </c>
       <c r="D7" t="n">
-        <v>0.721806979075224</v>
+        <v>0.666277076821746</v>
       </c>
       <c r="E7" t="n">
-        <v>0.738928777266841</v>
+        <v>0.696802587374168</v>
       </c>
       <c r="F7" t="n">
-        <v>0.818368431537213</v>
+        <v>0.795410788198406</v>
       </c>
       <c r="G7" t="n">
-        <v>0.655073035708112</v>
+        <v>0.607698690886031</v>
       </c>
       <c r="H7" t="n">
-        <v>0.699855361189891</v>
+        <v>0.792062683939815</v>
       </c>
       <c r="I7" t="n">
-        <v>0.724967503501726</v>
+        <v>0.667190951833058</v>
       </c>
       <c r="J7" t="n">
-        <v>0.558559408143098</v>
+        <v>0.613045932555469</v>
       </c>
       <c r="K7" t="n">
-        <v>0.730475362498803</v>
+        <v>0.628936238865224</v>
       </c>
       <c r="L7" t="n">
-        <v>0.716289840668841</v>
+        <v>0.8088407642703</v>
       </c>
       <c r="M7" t="n">
-        <v>0.639936030958015</v>
+        <v>0.855256695357428</v>
+      </c>
+      <c r="N7" t="n">
+        <v>0.687897470422195</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B8" t="n">
-        <v>0.695065052214898</v>
+        <v>0.698918331475469</v>
       </c>
       <c r="C8" t="n">
-        <v>0.704195954571904</v>
+        <v>0.697092895122861</v>
       </c>
       <c r="D8" t="n">
-        <v>0.666277076821746</v>
+        <v>0.609435949401638</v>
       </c>
       <c r="E8" t="n">
-        <v>0.696802587374168</v>
+        <v>0.617730568207905</v>
       </c>
       <c r="F8" t="n">
-        <v>0.795410788198406</v>
+        <v>0.817279205035671</v>
       </c>
       <c r="G8" t="n">
-        <v>0.607698690886031</v>
+        <v>0.784613555684529</v>
       </c>
       <c r="H8" t="n">
-        <v>0.792062683939815</v>
+        <v>0.730223465689437</v>
       </c>
       <c r="I8" t="n">
-        <v>0.667190951833058</v>
+        <v>0.709609963249317</v>
       </c>
       <c r="J8" t="n">
-        <v>0.613045932555469</v>
+        <v>0.615967974842447</v>
       </c>
       <c r="K8" t="n">
-        <v>0.628936238865224</v>
+        <v>0.682031121486497</v>
       </c>
       <c r="L8" t="n">
-        <v>0.855256695357428</v>
+        <v>0.732726367155135</v>
       </c>
       <c r="M8" t="n">
-        <v>0.687897470422195</v>
+        <v>0.863761845049657</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0.676132106736418</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B9" t="n">
-        <v>0.693877020238408</v>
+        <v>0.696176619821119</v>
       </c>
       <c r="C9" t="n">
-        <v>0.697092895122861</v>
+        <v>0.700444935809081</v>
       </c>
       <c r="D9" t="n">
-        <v>0.609435949401638</v>
+        <v>0.663129510132515</v>
       </c>
       <c r="E9" t="n">
-        <v>0.617730568207905</v>
+        <v>0.703082442009088</v>
       </c>
       <c r="F9" t="n">
-        <v>0.817279205035671</v>
+        <v>0.767953584569949</v>
       </c>
       <c r="G9" t="n">
-        <v>0.784613555684529</v>
+        <v>0.635274058195458</v>
       </c>
       <c r="H9" t="n">
-        <v>0.730223465689437</v>
+        <v>0.761652911826404</v>
       </c>
       <c r="I9" t="n">
-        <v>0.709609963249317</v>
+        <v>0.669175014521477</v>
       </c>
       <c r="J9" t="n">
-        <v>0.615967974842448</v>
+        <v>0.628848736852518</v>
       </c>
       <c r="K9" t="n">
-        <v>0.682031121486497</v>
+        <v>0.598238277778606</v>
       </c>
       <c r="L9" t="n">
-        <v>0.863761845049657</v>
+        <v>0.868355656849762</v>
       </c>
       <c r="M9" t="n">
-        <v>0.676132106736418</v>
+        <v>0.847174994036053</v>
+      </c>
+      <c r="N9" t="n">
+        <v>0.637702610469337</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B10" t="n">
-        <v>0.670183214069486</v>
+        <v>0.67109442335051</v>
       </c>
       <c r="C10" t="n">
-        <v>0.700444935809081</v>
+        <v>0.730089791866849</v>
       </c>
       <c r="D10" t="n">
-        <v>0.663129510132515</v>
+        <v>0.721806979075224</v>
       </c>
       <c r="E10" t="n">
-        <v>0.703082442009088</v>
+        <v>0.738928777266841</v>
       </c>
       <c r="F10" t="n">
-        <v>0.767953584569949</v>
+        <v>0.818368431537213</v>
       </c>
       <c r="G10" t="n">
-        <v>0.635274058195458</v>
+        <v>0.655073035708112</v>
       </c>
       <c r="H10" t="n">
-        <v>0.761652911826404</v>
+        <v>0.699855361189891</v>
       </c>
       <c r="I10" t="n">
-        <v>0.669175014521477</v>
+        <v>0.724967503501726</v>
       </c>
       <c r="J10" t="n">
-        <v>0.628848736852518</v>
+        <v>0.558559408143098</v>
       </c>
       <c r="K10" t="n">
-        <v>0.598238277778606</v>
+        <v>0.730475362498803</v>
       </c>
       <c r="L10" t="n">
-        <v>0.847174994036053</v>
+        <v>0.51555793347248</v>
       </c>
       <c r="M10" t="n">
-        <v>0.637702610469337</v>
+        <v>0.716289840668841</v>
+      </c>
+      <c r="N10" t="n">
+        <v>0.639936030958015</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B11" t="n">
-        <v>0.529065013196471</v>
+        <v>0.533051515245045</v>
       </c>
       <c r="C11" t="n">
         <v>0.548734778775213</v>
@@ -866,9 +899,12 @@
         <v>0.473830554302156</v>
       </c>
       <c r="L11" t="n">
+        <v>0.551727452196554</v>
+      </c>
+      <c r="M11" t="n">
         <v>0.672130794852054</v>
       </c>
-      <c r="M11" t="n">
+      <c r="N11" t="n">
         <v>0.507565725374135</v>
       </c>
     </row>

--- a/xlsx/country_comparison/solidarity_support_incl_info_share.xlsx
+++ b/xlsx/country_comparison/solidarity_support_incl_info_share.xlsx
@@ -72,11 +72,11 @@
 returned to countries based on population</t>
   </si>
   <si>
+    <t xml:space="preserve">At least 0.7% of developed countries' GDP in foreign aid</t>
+  </si>
+  <si>
     <t xml:space="preserve">Expand Security Council to new permanent members (e.g.
 India, Brazil, African Union), restrict veto use</t>
-  </si>
-  <si>
-    <t xml:space="preserve">At least 0.7% of developed countries' GDP in foreign aid</t>
   </si>
   <si>
     <t xml:space="preserve">Debt relief for vulnerable countries, suspending
@@ -473,7 +473,7 @@
         <v>14</v>
       </c>
       <c r="B2" t="n">
-        <v>0.810849876041008</v>
+        <v>0.810766171040784</v>
       </c>
       <c r="C2" t="n">
         <v>0.842017655185441</v>
@@ -500,16 +500,16 @@
         <v>0.749584223477851</v>
       </c>
       <c r="K2" t="n">
-        <v>0.80443225052632</v>
+        <v>0.804427307508489</v>
       </c>
       <c r="L2" t="n">
-        <v>0.803447498047737</v>
+        <v>0.802758171283287</v>
       </c>
       <c r="M2" t="n">
         <v>0.84198527428922</v>
       </c>
       <c r="N2" t="n">
-        <v>0.775144457945043</v>
+        <v>0.77526708951551</v>
       </c>
     </row>
     <row r="3">
@@ -517,7 +517,7 @@
         <v>15</v>
       </c>
       <c r="B3" t="n">
-        <v>0.799931570188308</v>
+        <v>0.797024801060079</v>
       </c>
       <c r="C3" t="n">
         <v>0.829110867227459</v>
@@ -544,16 +544,16 @@
         <v>0.75705857937636</v>
       </c>
       <c r="K3" t="n">
-        <v>0.799099230996859</v>
+        <v>0.799238769541705</v>
       </c>
       <c r="L3" t="n">
-        <v>0.829667194243608</v>
+        <v>0.809868664836954</v>
       </c>
       <c r="M3" t="n">
         <v>0.840886395970294</v>
       </c>
       <c r="N3" t="n">
-        <v>0.751755129790232</v>
+        <v>0.751864877428866</v>
       </c>
     </row>
     <row r="4">
@@ -561,7 +561,7 @@
         <v>16</v>
       </c>
       <c r="B4" t="n">
-        <v>0.758711414916638</v>
+        <v>0.757108705224218</v>
       </c>
       <c r="C4" t="n">
         <v>0.763300258946126</v>
@@ -588,16 +588,16 @@
         <v>0.706380462592848</v>
       </c>
       <c r="K4" t="n">
-        <v>0.738637188957687</v>
+        <v>0.738760222686138</v>
       </c>
       <c r="L4" t="n">
-        <v>0.860894369991106</v>
+        <v>0.849722229661507</v>
       </c>
       <c r="M4" t="n">
         <v>0.874638719388442</v>
       </c>
       <c r="N4" t="n">
-        <v>0.709627276853735</v>
+        <v>0.709936613335233</v>
       </c>
     </row>
     <row r="5">
@@ -605,7 +605,7 @@
         <v>17</v>
       </c>
       <c r="B5" t="n">
-        <v>0.712733222468852</v>
+        <v>0.7110603928988</v>
       </c>
       <c r="C5" t="n">
         <v>0.742910759858296</v>
@@ -632,16 +632,16 @@
         <v>0.691834500135429</v>
       </c>
       <c r="K5" t="n">
-        <v>0.605605183565789</v>
+        <v>0.605693333803076</v>
       </c>
       <c r="L5" t="n">
-        <v>0.735989202002193</v>
+        <v>0.723228646527601</v>
       </c>
       <c r="M5" t="n">
         <v>0.807677934079569</v>
       </c>
       <c r="N5" t="n">
-        <v>0.687805769455741</v>
+        <v>0.688026063103567</v>
       </c>
     </row>
     <row r="6">
@@ -649,43 +649,43 @@
         <v>18</v>
       </c>
       <c r="B6" t="n">
-        <v>0.712662833023526</v>
+        <v>0.710963809038095</v>
       </c>
       <c r="C6" t="n">
-        <v>0.760707963995337</v>
+        <v>0.704195954571904</v>
       </c>
       <c r="D6" t="n">
-        <v>0.699736614924214</v>
+        <v>0.666277076821746</v>
       </c>
       <c r="E6" t="n">
-        <v>0.768360035398403</v>
+        <v>0.696802587374168</v>
       </c>
       <c r="F6" t="n">
-        <v>0.834848396666732</v>
+        <v>0.795410788198406</v>
       </c>
       <c r="G6" t="n">
-        <v>0.721374652723915</v>
+        <v>0.607698690886031</v>
       </c>
       <c r="H6" t="n">
-        <v>0.781780428310875</v>
+        <v>0.792062683939815</v>
       </c>
       <c r="I6" t="n">
-        <v>0.754321933619075</v>
+        <v>0.667190951833058</v>
       </c>
       <c r="J6" t="n">
-        <v>0.69310502824291</v>
+        <v>0.613045932555469</v>
       </c>
       <c r="K6" t="n">
-        <v>0.679140589366531</v>
+        <v>0.629176553470256</v>
       </c>
       <c r="L6" t="n">
-        <v>0.552103442503757</v>
+        <v>0.811446515089398</v>
       </c>
       <c r="M6" t="n">
-        <v>0.8376264999751</v>
+        <v>0.855256695357428</v>
       </c>
       <c r="N6" t="n">
-        <v>0.683141104107147</v>
+        <v>0.68810334096839</v>
       </c>
     </row>
     <row r="7">
@@ -693,43 +693,43 @@
         <v>19</v>
       </c>
       <c r="B7" t="n">
-        <v>0.710906084923535</v>
+        <v>0.710958906242626</v>
       </c>
       <c r="C7" t="n">
-        <v>0.704195954571904</v>
+        <v>0.760707963995337</v>
       </c>
       <c r="D7" t="n">
-        <v>0.666277076821746</v>
+        <v>0.699736614924214</v>
       </c>
       <c r="E7" t="n">
-        <v>0.696802587374168</v>
+        <v>0.768360035398403</v>
       </c>
       <c r="F7" t="n">
-        <v>0.795410788198406</v>
+        <v>0.834848396666732</v>
       </c>
       <c r="G7" t="n">
-        <v>0.607698690886031</v>
+        <v>0.721374652723915</v>
       </c>
       <c r="H7" t="n">
-        <v>0.792062683939815</v>
+        <v>0.781780428310875</v>
       </c>
       <c r="I7" t="n">
-        <v>0.667190951833058</v>
+        <v>0.754321933619075</v>
       </c>
       <c r="J7" t="n">
-        <v>0.613045932555469</v>
+        <v>0.69310502824291</v>
       </c>
       <c r="K7" t="n">
-        <v>0.628936238865224</v>
+        <v>0.67919665090582</v>
       </c>
       <c r="L7" t="n">
-        <v>0.8088407642703</v>
+        <v>0.52836576507021</v>
       </c>
       <c r="M7" t="n">
-        <v>0.855256695357428</v>
+        <v>0.8376264999751</v>
       </c>
       <c r="N7" t="n">
-        <v>0.687897470422195</v>
+        <v>0.683164238669689</v>
       </c>
     </row>
     <row r="8">
@@ -737,7 +737,7 @@
         <v>20</v>
       </c>
       <c r="B8" t="n">
-        <v>0.698918331475469</v>
+        <v>0.698425000863124</v>
       </c>
       <c r="C8" t="n">
         <v>0.697092895122861</v>
@@ -764,16 +764,16 @@
         <v>0.615967974842447</v>
       </c>
       <c r="K8" t="n">
-        <v>0.682031121486497</v>
+        <v>0.68209318625798</v>
       </c>
       <c r="L8" t="n">
-        <v>0.732726367155135</v>
+        <v>0.731103255520317</v>
       </c>
       <c r="M8" t="n">
         <v>0.863761845049657</v>
       </c>
       <c r="N8" t="n">
-        <v>0.676132106736418</v>
+        <v>0.676470685430395</v>
       </c>
     </row>
     <row r="9">
@@ -781,7 +781,7 @@
         <v>21</v>
       </c>
       <c r="B9" t="n">
-        <v>0.696176619821119</v>
+        <v>0.695627143005866</v>
       </c>
       <c r="C9" t="n">
         <v>0.700444935809081</v>
@@ -808,16 +808,16 @@
         <v>0.628848736852518</v>
       </c>
       <c r="K9" t="n">
-        <v>0.598238277778606</v>
+        <v>0.598376636478943</v>
       </c>
       <c r="L9" t="n">
-        <v>0.868355656849762</v>
+        <v>0.865242178203457</v>
       </c>
       <c r="M9" t="n">
         <v>0.847174994036053</v>
       </c>
       <c r="N9" t="n">
-        <v>0.637702610469337</v>
+        <v>0.637903907227022</v>
       </c>
     </row>
     <row r="10">
@@ -825,7 +825,7 @@
         <v>22</v>
       </c>
       <c r="B10" t="n">
-        <v>0.67109442335051</v>
+        <v>0.672629131901829</v>
       </c>
       <c r="C10" t="n">
         <v>0.730089791866849</v>
@@ -852,16 +852,16 @@
         <v>0.558559408143098</v>
       </c>
       <c r="K10" t="n">
-        <v>0.730475362498803</v>
+        <v>0.730649906424626</v>
       </c>
       <c r="L10" t="n">
-        <v>0.51555793347248</v>
+        <v>0.526175876284137</v>
       </c>
       <c r="M10" t="n">
         <v>0.716289840668841</v>
       </c>
       <c r="N10" t="n">
-        <v>0.639936030958015</v>
+        <v>0.640087494789651</v>
       </c>
     </row>
     <row r="11">
@@ -869,7 +869,7 @@
         <v>23</v>
       </c>
       <c r="B11" t="n">
-        <v>0.533051515245045</v>
+        <v>0.531469149797616</v>
       </c>
       <c r="C11" t="n">
         <v>0.548734778775213</v>
@@ -878,7 +878,7 @@
         <v>0.586853027154667</v>
       </c>
       <c r="E11" t="n">
-        <v>0.566216773671888</v>
+        <v>0.566216773671889</v>
       </c>
       <c r="F11" t="n">
         <v>0.555300175601703</v>
@@ -896,16 +896,16 @@
         <v>0.483061039763313</v>
       </c>
       <c r="K11" t="n">
-        <v>0.473830554302156</v>
+        <v>0.473958380674961</v>
       </c>
       <c r="L11" t="n">
-        <v>0.551727452196554</v>
+        <v>0.538320887564464</v>
       </c>
       <c r="M11" t="n">
         <v>0.672130794852054</v>
       </c>
       <c r="N11" t="n">
-        <v>0.507565725374135</v>
+        <v>0.507814388033952</v>
       </c>
     </row>
   </sheetData>

--- a/xlsx/country_comparison/solidarity_support_incl_info_share.xlsx
+++ b/xlsx/country_comparison/solidarity_support_incl_info_share.xlsx
@@ -473,7 +473,7 @@
         <v>14</v>
       </c>
       <c r="B2" t="n">
-        <v>0.810766171040784</v>
+        <v>0.81105205992511</v>
       </c>
       <c r="C2" t="n">
         <v>0.842017655185441</v>
@@ -503,7 +503,7 @@
         <v>0.804427307508489</v>
       </c>
       <c r="L2" t="n">
-        <v>0.802758171283287</v>
+        <v>0.804975443687201</v>
       </c>
       <c r="M2" t="n">
         <v>0.84198527428922</v>
@@ -517,7 +517,7 @@
         <v>15</v>
       </c>
       <c r="B3" t="n">
-        <v>0.797024801060079</v>
+        <v>0.79693552228442</v>
       </c>
       <c r="C3" t="n">
         <v>0.829110867227459</v>
@@ -547,7 +547,7 @@
         <v>0.799238769541705</v>
       </c>
       <c r="L3" t="n">
-        <v>0.809868664836954</v>
+        <v>0.8034001106575</v>
       </c>
       <c r="M3" t="n">
         <v>0.840886395970294</v>
@@ -561,7 +561,7 @@
         <v>16</v>
       </c>
       <c r="B4" t="n">
-        <v>0.757108705224218</v>
+        <v>0.757433918108113</v>
       </c>
       <c r="C4" t="n">
         <v>0.763300258946126</v>
@@ -582,7 +582,7 @@
         <v>0.792997401140197</v>
       </c>
       <c r="I4" t="n">
-        <v>0.742113769980061</v>
+        <v>0.742113769980062</v>
       </c>
       <c r="J4" t="n">
         <v>0.706380462592848</v>
@@ -591,7 +591,7 @@
         <v>0.738760222686138</v>
       </c>
       <c r="L4" t="n">
-        <v>0.849722229661507</v>
+        <v>0.847170664064891</v>
       </c>
       <c r="M4" t="n">
         <v>0.874638719388442</v>
@@ -605,7 +605,7 @@
         <v>17</v>
       </c>
       <c r="B5" t="n">
-        <v>0.7110603928988</v>
+        <v>0.711494502021427</v>
       </c>
       <c r="C5" t="n">
         <v>0.742910759858296</v>
@@ -635,7 +635,7 @@
         <v>0.605693333803076</v>
       </c>
       <c r="L5" t="n">
-        <v>0.723228646527601</v>
+        <v>0.729127889064831</v>
       </c>
       <c r="M5" t="n">
         <v>0.807677934079569</v>
@@ -649,7 +649,7 @@
         <v>18</v>
       </c>
       <c r="B6" t="n">
-        <v>0.710963809038095</v>
+        <v>0.711234316950339</v>
       </c>
       <c r="C6" t="n">
         <v>0.704195954571904</v>
@@ -679,7 +679,7 @@
         <v>0.629176553470256</v>
       </c>
       <c r="L6" t="n">
-        <v>0.811446515089398</v>
+        <v>0.810580370309662</v>
       </c>
       <c r="M6" t="n">
         <v>0.855256695357428</v>
@@ -693,7 +693,7 @@
         <v>19</v>
       </c>
       <c r="B7" t="n">
-        <v>0.710958906242626</v>
+        <v>0.710919543617656</v>
       </c>
       <c r="C7" t="n">
         <v>0.760707963995337</v>
@@ -723,7 +723,7 @@
         <v>0.67919665090582</v>
       </c>
       <c r="L7" t="n">
-        <v>0.52836576507021</v>
+        <v>0.528025667438765</v>
       </c>
       <c r="M7" t="n">
         <v>0.8376264999751</v>
@@ -737,13 +737,13 @@
         <v>20</v>
       </c>
       <c r="B8" t="n">
-        <v>0.698425000863124</v>
+        <v>0.698333620716356</v>
       </c>
       <c r="C8" t="n">
         <v>0.697092895122861</v>
       </c>
       <c r="D8" t="n">
-        <v>0.609435949401638</v>
+        <v>0.609435949401637</v>
       </c>
       <c r="E8" t="n">
         <v>0.617730568207905</v>
@@ -761,13 +761,13 @@
         <v>0.709609963249317</v>
       </c>
       <c r="J8" t="n">
-        <v>0.615967974842447</v>
+        <v>0.615967974842448</v>
       </c>
       <c r="K8" t="n">
-        <v>0.68209318625798</v>
+        <v>0.682093186257981</v>
       </c>
       <c r="L8" t="n">
-        <v>0.731103255520317</v>
+        <v>0.726511394674859</v>
       </c>
       <c r="M8" t="n">
         <v>0.863761845049657</v>
@@ -781,7 +781,7 @@
         <v>21</v>
       </c>
       <c r="B9" t="n">
-        <v>0.695627143005866</v>
+        <v>0.695603247634989</v>
       </c>
       <c r="C9" t="n">
         <v>0.700444935809081</v>
@@ -811,7 +811,7 @@
         <v>0.598376636478943</v>
       </c>
       <c r="L9" t="n">
-        <v>0.865242178203457</v>
+        <v>0.861397757647421</v>
       </c>
       <c r="M9" t="n">
         <v>0.847174994036053</v>
@@ -825,7 +825,7 @@
         <v>22</v>
       </c>
       <c r="B10" t="n">
-        <v>0.672629131901829</v>
+        <v>0.672713993521846</v>
       </c>
       <c r="C10" t="n">
         <v>0.730089791866849</v>
@@ -855,7 +855,7 @@
         <v>0.730649906424626</v>
       </c>
       <c r="L10" t="n">
-        <v>0.526175876284137</v>
+        <v>0.527106989746053</v>
       </c>
       <c r="M10" t="n">
         <v>0.716289840668841</v>
@@ -869,7 +869,7 @@
         <v>23</v>
       </c>
       <c r="B11" t="n">
-        <v>0.531469149797616</v>
+        <v>0.531503319623507</v>
       </c>
       <c r="C11" t="n">
         <v>0.548734778775213</v>
@@ -878,7 +878,7 @@
         <v>0.586853027154667</v>
       </c>
       <c r="E11" t="n">
-        <v>0.566216773671889</v>
+        <v>0.566216773671888</v>
       </c>
       <c r="F11" t="n">
         <v>0.555300175601703</v>
@@ -899,7 +899,7 @@
         <v>0.473958380674961</v>
       </c>
       <c r="L11" t="n">
-        <v>0.538320887564464</v>
+        <v>0.547506346993746</v>
       </c>
       <c r="M11" t="n">
         <v>0.672130794852054</v>
